--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\table_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4B795-E567-4B8C-A40A-7446E628CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462C7E4-4694-4F60-A7F5-136DE6FDCC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="94">
   <si>
     <t>Tabella</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">Abbr </t>
   </si>
   <si>
-    <t>Descr</t>
-  </si>
-  <si>
     <t>Cod Att</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>YAX3MU0</t>
   </si>
   <si>
-    <t>(X3)USERNAME</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -305,6 +299,15 @@
   </si>
   <si>
     <t>Validità RT</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>X3USERNAME</t>
+  </si>
+  <si>
+    <t>YAX3MUT0</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,19 +488,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,16 +844,16 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
@@ -870,102 +870,96 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="K4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -976,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -996,745 +990,745 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="13">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14">
-        <v>15</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6911</v>
+      </c>
+      <c r="E5" s="13">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14">
-        <v>6911</v>
-      </c>
-      <c r="E5" s="14">
-        <v>15</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="14">
-        <v>15</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>47</v>
+      <c r="M5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="13">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="M7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="14">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="M9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8">
         <v>30</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="22" t="s">
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="M10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="C11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="9">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="9">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
+      <c r="N12" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
+      <c r="N13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="C14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="D14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="27">
-        <v>1</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>72</v>
+      <c r="N14" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="18">
+        <v>30</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="19">
-        <v>30</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="9">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="M18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8">
+        <v>250</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26">
         <v>4</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9">
-        <v>250</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="F23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="27">
-        <v>1</v>
-      </c>
-      <c r="E23" s="27">
-        <v>4</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="27">
-        <v>1</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>92</v>
+      <c r="M23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462C7E4-4694-4F60-A7F5-136DE6FDCC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FDDF60-1DAA-4B77-97E7-C96FF83FDD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
   <si>
     <t>Tabella</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>YAX3MUT0</t>
+  </si>
+  <si>
+    <t>ENAFLG</t>
+  </si>
+  <si>
+    <t>Flag Attivo</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,16 +1255,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
       </c>
       <c r="E11" s="8">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>24</v>
@@ -1269,19 +1275,17 @@
       <c r="H11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>50</v>
@@ -1315,30 +1319,30 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>73</v>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>39</v>
+      <c r="E13" s="8">
+        <v>50</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>24</v>
@@ -1355,157 +1359,153 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="26">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="D15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="s">
+      <c r="I15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N15" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="18">
         <v>30</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="F17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20" t="s">
+      <c r="I17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N17" s="21" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8">
-        <v>30</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>39</v>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8">
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>24</v>
@@ -1519,32 +1519,36 @@
       <c r="I18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="L18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1559,16 +1563,16 @@
       <c r="I19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,16 +1580,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>24</v>
@@ -1602,13 +1606,13 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1616,16 +1620,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>24</v>
@@ -1642,13 +1646,13 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1656,16 +1660,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>39</v>
+      <c r="E22" s="8">
+        <v>250</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -1676,58 +1680,98 @@
       <c r="H22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="26">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26">
         <v>4</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="26">
-        <v>1</v>
-      </c>
-      <c r="H23" s="26" t="s">
+      <c r="F24" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26" t="s">
+      <c r="I24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M24" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N24" s="27" t="s">
         <v>90</v>
       </c>
     </row>

--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FDDF60-1DAA-4B77-97E7-C96FF83FDD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5ED0B-F59F-4BFB-A28A-A9949DE57B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
     <sheet name="Nuovi campi in tabella" sheetId="2" r:id="rId2"/>
+    <sheet name="Indice" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
   <si>
     <t>Tabella</t>
   </si>
@@ -100,9 +101,6 @@
     <t>AUUID</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Colonna (campo)</t>
   </si>
   <si>
@@ -314,13 +312,22 @@
   </si>
   <si>
     <t>Flag Attivo</t>
+  </si>
+  <si>
+    <t>YAX3C</t>
+  </si>
+  <si>
+    <t>Codice Indice</t>
+  </si>
+  <si>
+    <t>Descrizione Indice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +343,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,12 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,17 +568,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +887,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -912,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -927,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>22</v>
@@ -945,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -957,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
@@ -976,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,787 +1033,861 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="F3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="11">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6911</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6911</v>
-      </c>
-      <c r="E5" s="13">
-        <v>15</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="13">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>45</v>
+      <c r="M5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="18">
-        <v>30</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="I14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="8">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="I15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>70</v>
+      <c r="N15" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="16">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="I17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="33">
         <v>30</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="F18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B19" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="8">
-        <v>30</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="I19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="8" t="s">
+      <c r="B20" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="C20" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="33">
+        <v>250</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="D23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="B24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
         <v>4</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="F24" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8">
-        <v>250</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="I24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="26">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26">
-        <v>4</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="26">
-        <v>1</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>90</v>
+      <c r="M24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8AA00-09A4-49FF-BAFD-B0681AA08F5E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E5ED0B-F59F-4BFB-A28A-A9949DE57B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7137B9D-CF0D-4674-82F5-FD4FE745D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
   <si>
     <t>Tabella</t>
   </si>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,19 +586,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1008,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A17" sqref="A17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,83 +1483,59 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="16">
-        <v>30</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6">
         <v>30</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="33">
-        <v>1</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="33" t="s">
+      <c r="I18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="33" t="s">
+      <c r="M18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N18" s="21" t="s">
@@ -1576,36 +1546,36 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="34" t="s">
+      <c r="D19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="33">
-        <v>1</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="33" t="s">
+      <c r="I19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="32" t="s">
         <v>75</v>
       </c>
       <c r="N19" s="26" t="s">
@@ -1616,36 +1586,36 @@
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="34" t="s">
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33" t="s">
+      <c r="I20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="N20" s="21" t="s">
@@ -1656,36 +1626,36 @@
       <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="33">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="33">
-        <v>1</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33" t="s">
+      <c r="I21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="N21" s="21" t="s">
@@ -1696,36 +1666,36 @@
       <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="6">
         <v>250</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="33" t="s">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33" t="s">
+      <c r="I22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="M22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N22" s="21" t="s">
@@ -1736,36 +1706,36 @@
       <c r="A23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="34" t="s">
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="33">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33" t="s">
+      <c r="I23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="6" t="s">
         <v>87</v>
       </c>
       <c r="N23" s="21" t="s">
@@ -1788,7 +1758,7 @@
       <c r="E24" s="24">
         <v>4</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="35" t="s">
         <v>95</v>
       </c>
       <c r="G24" s="24">

--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7137B9D-CF0D-4674-82F5-FD4FE745D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C6414-2E04-4433-9142-72210C552A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="102">
   <si>
     <t>Tabella</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>Descrizione Indice</t>
+  </si>
+  <si>
+    <t>YAX3MU1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>/ (* non inseribile)</t>
+  </si>
+  <si>
+    <t>/   (* non inseribile)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,14 +375,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -495,11 +501,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,9 +583,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,11 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,11 +605,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,9 +632,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,6 +643,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +1009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -932,73 +1041,164 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1007,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:N17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1216,7 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
@@ -1068,177 +1269,180 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="10">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="F4" s="47"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>6911</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>15</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="10">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="F6" s="47"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
+      <c r="I7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N8" s="4"/>
+      <c r="F8" s="42"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13">
         <v>30</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18" t="s">
+      <c r="I9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1253,7 +1457,7 @@
       <c r="E10" s="6">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="6">
@@ -1277,12 +1481,12 @@
       <c r="M10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1297,7 +1501,7 @@
       <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="6">
@@ -1315,12 +1519,12 @@
       <c r="M11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1335,7 +1539,7 @@
       <c r="E12" s="6">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="6">
@@ -1355,12 +1559,12 @@
       <c r="M12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1375,7 +1579,7 @@
       <c r="E13" s="6">
         <v>50</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="6">
@@ -1395,12 +1599,12 @@
       <c r="M13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1415,7 +1619,7 @@
       <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="6">
@@ -1435,71 +1639,73 @@
       <c r="M14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="F16" s="42"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1514,7 +1720,7 @@
       <c r="E18" s="6">
         <v>30</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G18" s="6">
@@ -1523,7 +1729,7 @@
       <c r="H18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -1538,27 +1744,27 @@
       <c r="M18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="32" t="s">
+      <c r="D19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="6">
@@ -1567,23 +1773,23 @@
       <c r="H19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="I19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1598,7 +1804,7 @@
       <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="6">
@@ -1607,7 +1813,7 @@
       <c r="H20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="6"/>
@@ -1618,12 +1824,12 @@
       <c r="M20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1638,7 +1844,7 @@
       <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="6">
@@ -1647,7 +1853,7 @@
       <c r="H21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="6"/>
@@ -1658,12 +1864,12 @@
       <c r="M21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1678,7 +1884,7 @@
       <c r="E22" s="6">
         <v>250</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G22" s="6">
@@ -1687,7 +1893,7 @@
       <c r="H22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="6"/>
@@ -1698,12 +1904,12 @@
       <c r="M22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1718,7 +1924,7 @@
       <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="6">
@@ -1738,47 +1944,47 @@
       <c r="M23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="19">
         <v>4</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24" t="s">
+      <c r="I24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1790,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8AA00-09A4-49FF-BAFD-B0681AA08F5E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,53 +2011,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
     </row>

--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C6414-2E04-4433-9142-72210C552A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0D2C4-BC40-4AA8-8140-E3246FDA6832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
   <si>
     <t>Tabella</t>
   </si>
@@ -333,6 +333,33 @@
   </si>
   <si>
     <t>/   (* non inseribile)</t>
+  </si>
+  <si>
+    <t>YAX3MPWRESTK</t>
+  </si>
+  <si>
+    <t>YAX3MPR</t>
+  </si>
+  <si>
+    <t>AX3M - Forgot password token</t>
+  </si>
+  <si>
+    <t>YAX3MPR0</t>
+  </si>
+  <si>
+    <t>YAX3MPR1</t>
+  </si>
+  <si>
+    <t>TOKENHASH</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>Noù</t>
+  </si>
+  <si>
+    <t>EXPIRY</t>
   </si>
 </sst>
 </file>
@@ -362,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +402,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -523,19 +556,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -557,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,44 +688,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,32 +1022,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1039,32 +1074,34 @@
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="K1" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1078,9 +1115,9 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1097,9 +1134,9 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1109,93 +1146,83 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="38" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1205,26 +1232,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,9 +1295,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1285,7 +1312,7 @@
       <c r="E3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>101</v>
       </c>
       <c r="G3" s="10">
@@ -1309,12 +1336,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="47"/>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="45"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1329,7 +1356,7 @@
       <c r="E5" s="10">
         <v>15</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="10">
@@ -1353,12 +1380,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="47"/>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="45"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1373,7 +1400,7 @@
       <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="39" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="10">
@@ -1397,12 +1424,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="42"/>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="40"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1441,10 +1468,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>12</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
       <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1485,10 +1510,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
       <c r="B11" s="5" t="s">
         <v>93</v>
       </c>
@@ -1523,10 +1546,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -1563,10 +1584,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
       <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1603,10 +1622,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>12</v>
-      </c>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
@@ -1643,10 +1660,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>12</v>
-      </c>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
       <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
@@ -1683,13 +1698,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="40"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1704,10 +1721,8 @@
       <c r="M17" s="15"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
       <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
@@ -1748,10 +1763,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
       <c r="B19" s="27" t="s">
         <v>73</v>
       </c>
@@ -1788,10 +1801,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
       <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
@@ -1828,10 +1839,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
@@ -1868,10 +1877,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
       <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
@@ -1908,10 +1915,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>18</v>
-      </c>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
       <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
@@ -1948,10 +1953,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>18</v>
-      </c>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
       <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
@@ -1987,6 +1990,115 @@
       <c r="N24" s="20" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="32">
+        <v>30</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="32">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="54">
+        <v>50</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="53">
+        <v>1</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1996,21 +2108,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8AA00-09A4-49FF-BAFD-B0681AA08F5E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2027,15 +2139,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -2051,8 +2163,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
       <c r="B4" s="35" t="s">
         <v>98</v>
       </c>
@@ -2066,27 +2178,60 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>95</v>
       </c>
     </row>

--- a/table/tableList_protocolCore.xlsx
+++ b/table/tableList_protocolCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0D2C4-BC40-4AA8-8140-E3246FDA6832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6D5AE0-B12E-474D-8238-E7B060432349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove tabelle" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,23 +719,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1024,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1195,7 @@
       <c r="J8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="34" t="s">
@@ -1222,7 +1207,7 @@
       <c r="J9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1234,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,35 +2023,35 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="41"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="54">
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4">
         <v>50</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="53">
+      <c r="F27" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="6">
         <v>1</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
+      <c r="I27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34"/>
@@ -2186,7 +2171,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="38" t="s">
